--- a/24-25/Invoice 24-25/16 BK016 Feb 24-25  Markino Black/Invoice template, PO, Packing List, Proforma invoice.xlsx
+++ b/24-25/Invoice 24-25/16 BK016 Feb 24-25  Markino Black/Invoice template, PO, Packing List, Proforma invoice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Main\BK Exports bills\24-25\Invoice 24-25\16 BK016 Feb 24-25  Markino Black\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC05B8CC-B141-4777-AD07-DE9CFC517877}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD5ED82-F69D-43FE-B5F3-275AD8CB73F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8940" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="company data" sheetId="5" r:id="rId1"/>
@@ -176,9 +176,6 @@
     <t>Net Weight</t>
   </si>
   <si>
-    <t>28000 kgs</t>
-  </si>
-  <si>
     <t>27500 kgs</t>
   </si>
   <si>
@@ -264,9 +261,6 @@
   </si>
   <si>
     <t>Container No.</t>
-  </si>
-  <si>
-    <t>28000kgs</t>
   </si>
   <si>
     <t>27500kgs</t>
@@ -605,11 +599,20 @@
     <t>TCKU2284720</t>
   </si>
   <si>
+    <t>Three Thousand Five Hundred Forty Eight Dollars and Fifty Seven Cent</t>
+  </si>
+  <si>
     <t>DONG THANG IMPORT - EXPORT LIMITED
-No 2 Zone - Dong Thang Hamlet - Trieu Son District - Thanh Hoa Province - Vietnam</t>
-  </si>
-  <si>
-    <t>Three Thousand Five Hundred Forty Eight Dollars and Fifty Seven Cent</t>
+No 2 Zone - Dong Thang Hamlet - Trieu Son District - Thanh Hoa Province - Vietnam
+Tax: 2802863364
+Contact No: +84976193298, +84978444516
+Email: phamtrang101098@gmail.com</t>
+  </si>
+  <si>
+    <t>27000 kgs</t>
+  </si>
+  <si>
+    <t>27000kgs</t>
   </si>
 </sst>
 </file>
@@ -1259,6 +1262,243 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1277,30 +1517,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1319,218 +1535,119 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1568,119 +1685,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1762,45 +1804,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2363,63 +2366,63 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B1" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="54" t="s">
         <v>128</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="E1" s="54" t="s">
         <v>129</v>
-      </c>
-      <c r="D1" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="E1" s="54" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
       </c>
       <c r="D2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" t="s">
         <v>134</v>
-      </c>
-      <c r="E2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" t="s">
         <v>135</v>
-      </c>
-      <c r="D4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E4" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2432,8 +2435,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2445,23 +2448,23 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="67" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B1" s="68" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="67" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B2" s="70" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="67" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B3" s="66" t="str">
         <f>"BK0" &amp; B2 &amp; "/" &amp; B1</f>
@@ -2470,7 +2473,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="67" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B4" s="71">
         <v>45703</v>
@@ -2478,7 +2481,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="67" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B5" s="76" t="str">
         <f>IF(B1="24-25","AD240424008317F",IF(B1="23-24","AD240322004861M",IF(B1="","select the financial year")))</f>
@@ -2487,10 +2490,10 @@
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="89" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B6" s="88" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C6" s="72"/>
       <c r="D6" s="72"/>
@@ -2540,7 +2543,7 @@
     </row>
     <row r="12" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="78" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B12" s="77">
         <v>1</v>
@@ -2552,10 +2555,10 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="67" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B13" s="68" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C13" s="68"/>
       <c r="D13" s="68"/>
@@ -2564,7 +2567,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="67" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B14" s="68" t="s">
         <v>44</v>
@@ -2576,26 +2579,26 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="67" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B15" s="68" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="67" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B16" s="68" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="67" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B17" s="68" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -2603,7 +2606,7 @@
         <v>21</v>
       </c>
       <c r="B18" s="68" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2611,7 +2614,7 @@
         <v>26</v>
       </c>
       <c r="B19" s="68" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2619,7 +2622,7 @@
         <v>27</v>
       </c>
       <c r="B20" s="69" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2627,7 +2630,7 @@
         <v>28</v>
       </c>
       <c r="B21" s="69" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -2635,7 +2638,7 @@
         <v>24</v>
       </c>
       <c r="B22" s="68" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2643,7 +2646,7 @@
         <v>45</v>
       </c>
       <c r="B23" s="68" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2656,7 +2659,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="67" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B25" s="68">
         <v>535.23</v>
@@ -2751,8 +2754,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2767,30 +2770,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="142"/>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
+      <c r="A2" s="124"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="124"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
@@ -2799,16 +2802,16 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="99" t="s">
+      <c r="E3" s="133" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="100"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="99" t="s">
+      <c r="F3" s="138"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="100"/>
-      <c r="J3" s="101"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="134"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -2817,18 +2820,18 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="131" t="str">
+      <c r="E4" s="104" t="str">
         <f>'input data'!B3</f>
         <v>BK016/24-25</v>
       </c>
-      <c r="F4" s="135"/>
-      <c r="G4" s="132"/>
-      <c r="H4" s="136">
+      <c r="F4" s="121"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="153">
         <f>'input data'!B4</f>
         <v>45703</v>
       </c>
-      <c r="I4" s="135"/>
-      <c r="J4" s="132"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="105"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
@@ -2837,16 +2840,16 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="99" t="s">
+      <c r="E5" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="100"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="99" t="s">
+      <c r="F5" s="138"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="100"/>
-      <c r="J5" s="101"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="134"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
@@ -2855,15 +2858,15 @@
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="131"/>
-      <c r="F6" s="135"/>
-      <c r="G6" s="132"/>
-      <c r="H6" s="137" t="str">
+      <c r="E6" s="104"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="154" t="str">
         <f>'input data'!B5</f>
         <v>AD240424008317F</v>
       </c>
-      <c r="I6" s="129"/>
-      <c r="J6" s="130"/>
+      <c r="I6" s="155"/>
+      <c r="J6" s="136"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
@@ -2872,16 +2875,16 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="99" t="s">
+      <c r="E7" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="100"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="99" t="s">
+      <c r="F7" s="138"/>
+      <c r="G7" s="134"/>
+      <c r="H7" s="133" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="100"/>
-      <c r="J7" s="101"/>
+      <c r="I7" s="138"/>
+      <c r="J7" s="134"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
@@ -2890,16 +2893,16 @@
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="131" t="s">
+      <c r="E8" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="135"/>
-      <c r="G8" s="132"/>
-      <c r="H8" s="128" t="s">
+      <c r="F8" s="121"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="135" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="129"/>
-      <c r="J8" s="130"/>
+      <c r="I8" s="155"/>
+      <c r="J8" s="136"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
@@ -2908,16 +2911,16 @@
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="99" t="s">
+      <c r="E9" s="133" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="100"/>
-      <c r="G9" s="101"/>
-      <c r="H9" s="99" t="s">
+      <c r="F9" s="138"/>
+      <c r="G9" s="134"/>
+      <c r="H9" s="133" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="100"/>
-      <c r="J9" s="101"/>
+      <c r="I9" s="138"/>
+      <c r="J9" s="134"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
@@ -2926,68 +2929,68 @@
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="96" t="str">
+      <c r="E10" s="100" t="str">
         <f>'input data'!B13</f>
         <v>Loose packing</v>
       </c>
-      <c r="F10" s="97"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="96" t="str">
+      <c r="F10" s="116"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="100" t="str">
         <f>'input data'!B12 &amp; " " &amp; 'input data'!B14</f>
         <v>1 FCL</v>
       </c>
-      <c r="I10" s="97"/>
-      <c r="J10" s="98"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="101"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="155" t="s">
+      <c r="A11" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="156"/>
-      <c r="C11" s="156"/>
-      <c r="D11" s="157"/>
-      <c r="E11" s="104" t="s">
-        <v>115</v>
-      </c>
-      <c r="F11" s="90"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="90" t="s">
-        <v>116</v>
-      </c>
-      <c r="I11" s="90"/>
-      <c r="J11" s="91"/>
+      <c r="B11" s="119"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="175" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" s="169"/>
+      <c r="G11" s="170"/>
+      <c r="H11" s="169" t="s">
+        <v>114</v>
+      </c>
+      <c r="I11" s="169"/>
+      <c r="J11" s="170"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="107" t="s">
+      <c r="A12" s="178" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="108"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="105" t="str">
+      <c r="B12" s="179"/>
+      <c r="C12" s="179"/>
+      <c r="D12" s="180"/>
+      <c r="E12" s="176" t="str">
         <f>'input data'!B15</f>
         <v>CNF</v>
       </c>
-      <c r="F12" s="92"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="92" t="str">
+      <c r="F12" s="171"/>
+      <c r="G12" s="172"/>
+      <c r="H12" s="171" t="str">
         <f>'input data'!B16</f>
         <v>100% Against Documents</v>
       </c>
-      <c r="I12" s="92"/>
-      <c r="J12" s="93"/>
+      <c r="I12" s="171"/>
+      <c r="J12" s="172"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="95"/>
+      <c r="E13" s="177"/>
+      <c r="F13" s="173"/>
+      <c r="G13" s="174"/>
+      <c r="H13" s="173"/>
+      <c r="I13" s="173"/>
+      <c r="J13" s="174"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
@@ -2996,288 +2999,291 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="119" t="s">
-        <v>114</v>
-      </c>
-      <c r="F14" s="120"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="120"/>
-      <c r="J14" s="121"/>
+      <c r="E14" s="167" t="s">
+        <v>112</v>
+      </c>
+      <c r="F14" s="126"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="126"/>
+      <c r="J14" s="127"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="112" t="str">
+      <c r="A15" s="160" t="str">
         <f>'input data'!B6</f>
         <v>DONG THANG IMPORT - EXPORT LIMITED
-No 2 Zone - Dong Thang Hamlet - Trieu Son District - Thanh Hoa Province - Vietnam</v>
-      </c>
-      <c r="B15" s="113"/>
-      <c r="C15" s="113"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="122"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="123"/>
-      <c r="J15" s="124"/>
+No 2 Zone - Dong Thang Hamlet - Trieu Son District - Thanh Hoa Province - Vietnam
+Tax: 2802863364
+Contact No: +84976193298, +84978444516
+Email: phamtrang101098@gmail.com</v>
+      </c>
+      <c r="B15" s="161"/>
+      <c r="C15" s="161"/>
+      <c r="D15" s="162"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="129"/>
+      <c r="G15" s="129"/>
+      <c r="H15" s="129"/>
+      <c r="I15" s="129"/>
+      <c r="J15" s="130"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="115"/>
-      <c r="B16" s="113"/>
-      <c r="C16" s="113"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="124"/>
+      <c r="A16" s="163"/>
+      <c r="B16" s="161"/>
+      <c r="C16" s="161"/>
+      <c r="D16" s="162"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="129"/>
+      <c r="G16" s="129"/>
+      <c r="H16" s="129"/>
+      <c r="I16" s="129"/>
+      <c r="J16" s="130"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="115"/>
-      <c r="B17" s="113"/>
-      <c r="C17" s="113"/>
-      <c r="D17" s="114"/>
-      <c r="E17" s="122"/>
-      <c r="F17" s="123"/>
-      <c r="G17" s="123"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="123"/>
-      <c r="J17" s="124"/>
+      <c r="A17" s="163"/>
+      <c r="B17" s="161"/>
+      <c r="C17" s="161"/>
+      <c r="D17" s="162"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="129"/>
+      <c r="G17" s="129"/>
+      <c r="H17" s="129"/>
+      <c r="I17" s="129"/>
+      <c r="J17" s="130"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="115"/>
-      <c r="B18" s="113"/>
-      <c r="C18" s="113"/>
-      <c r="D18" s="114"/>
-      <c r="E18" s="122"/>
-      <c r="F18" s="123"/>
-      <c r="G18" s="123"/>
-      <c r="H18" s="123"/>
-      <c r="I18" s="123"/>
-      <c r="J18" s="124"/>
+      <c r="A18" s="163"/>
+      <c r="B18" s="161"/>
+      <c r="C18" s="161"/>
+      <c r="D18" s="162"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="129"/>
+      <c r="G18" s="129"/>
+      <c r="H18" s="129"/>
+      <c r="I18" s="129"/>
+      <c r="J18" s="130"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="115"/>
-      <c r="B19" s="113"/>
-      <c r="C19" s="113"/>
-      <c r="D19" s="114"/>
-      <c r="E19" s="122"/>
-      <c r="F19" s="123"/>
-      <c r="G19" s="123"/>
-      <c r="H19" s="123"/>
-      <c r="I19" s="123"/>
-      <c r="J19" s="124"/>
+      <c r="A19" s="163"/>
+      <c r="B19" s="161"/>
+      <c r="C19" s="161"/>
+      <c r="D19" s="162"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="129"/>
+      <c r="G19" s="129"/>
+      <c r="H19" s="129"/>
+      <c r="I19" s="129"/>
+      <c r="J19" s="130"/>
     </row>
     <row r="20" spans="1:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="116"/>
-      <c r="B20" s="117"/>
-      <c r="C20" s="117"/>
-      <c r="D20" s="118"/>
-      <c r="E20" s="125"/>
-      <c r="F20" s="126"/>
-      <c r="G20" s="126"/>
-      <c r="H20" s="126"/>
-      <c r="I20" s="126"/>
-      <c r="J20" s="127"/>
+      <c r="A20" s="164"/>
+      <c r="B20" s="165"/>
+      <c r="C20" s="165"/>
+      <c r="D20" s="166"/>
+      <c r="E20" s="151"/>
+      <c r="F20" s="168"/>
+      <c r="G20" s="168"/>
+      <c r="H20" s="168"/>
+      <c r="I20" s="168"/>
+      <c r="J20" s="152"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="102" t="s">
+      <c r="A21" s="137" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="103"/>
-      <c r="C21" s="102" t="s">
+      <c r="B21" s="145"/>
+      <c r="C21" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="103"/>
-      <c r="E21" s="102" t="s">
+      <c r="D21" s="145"/>
+      <c r="E21" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="100"/>
-      <c r="G21" s="101"/>
-      <c r="H21" s="102" t="s">
+      <c r="F21" s="138"/>
+      <c r="G21" s="134"/>
+      <c r="H21" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="I21" s="149"/>
-      <c r="J21" s="103"/>
+      <c r="I21" s="144"/>
+      <c r="J21" s="145"/>
     </row>
     <row r="22" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="110" t="s">
+      <c r="A22" s="158" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="111"/>
-      <c r="C22" s="122" t="str">
+      <c r="B22" s="159"/>
+      <c r="C22" s="128" t="str">
         <f>'input data'!B18</f>
         <v>MUNDRA</v>
       </c>
-      <c r="D22" s="124"/>
-      <c r="E22" s="144" t="s">
+      <c r="D22" s="130"/>
+      <c r="E22" s="139" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="145"/>
-      <c r="G22" s="146"/>
-      <c r="H22" s="144" t="str">
+      <c r="F22" s="140"/>
+      <c r="G22" s="141"/>
+      <c r="H22" s="139" t="str">
         <f>'input data'!B22</f>
         <v>VIETNAM</v>
       </c>
-      <c r="I22" s="150"/>
-      <c r="J22" s="151"/>
+      <c r="I22" s="146"/>
+      <c r="J22" s="147"/>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="138"/>
-      <c r="B23" s="139"/>
-      <c r="C23" s="125"/>
-      <c r="D23" s="127"/>
-      <c r="E23" s="147"/>
-      <c r="F23" s="142"/>
-      <c r="G23" s="148"/>
-      <c r="H23" s="152"/>
-      <c r="I23" s="153"/>
-      <c r="J23" s="154"/>
+      <c r="A23" s="156"/>
+      <c r="B23" s="157"/>
+      <c r="C23" s="151"/>
+      <c r="D23" s="152"/>
+      <c r="E23" s="142"/>
+      <c r="F23" s="124"/>
+      <c r="G23" s="143"/>
+      <c r="H23" s="148"/>
+      <c r="I23" s="149"/>
+      <c r="J23" s="150"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="99" t="s">
+      <c r="A24" s="133" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="101"/>
-      <c r="C24" s="100" t="s">
+      <c r="B24" s="134"/>
+      <c r="C24" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="101"/>
-      <c r="E24" s="99" t="s">
+      <c r="D24" s="134"/>
+      <c r="E24" s="133" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="100"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="100" t="s">
+      <c r="F24" s="138"/>
+      <c r="G24" s="134"/>
+      <c r="H24" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="I24" s="100"/>
-      <c r="J24" s="101"/>
+      <c r="I24" s="138"/>
+      <c r="J24" s="134"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="131"/>
-      <c r="B25" s="132"/>
-      <c r="C25" s="128" t="str">
+      <c r="A25" s="104"/>
+      <c r="B25" s="105"/>
+      <c r="C25" s="135" t="str">
         <f>'input data'!B19</f>
         <v>MUNDRA</v>
       </c>
-      <c r="D25" s="130"/>
-      <c r="E25" s="128" t="str">
+      <c r="D25" s="136"/>
+      <c r="E25" s="135" t="str">
         <f>'input data'!B20</f>
         <v>HAI PHONG</v>
       </c>
-      <c r="F25" s="129"/>
-      <c r="G25" s="130"/>
-      <c r="H25" s="128" t="str">
+      <c r="F25" s="155"/>
+      <c r="G25" s="136"/>
+      <c r="H25" s="135" t="str">
         <f>'input data'!B21</f>
         <v>HAI PHONG</v>
       </c>
-      <c r="I25" s="129"/>
-      <c r="J25" s="130"/>
+      <c r="I25" s="155"/>
+      <c r="J25" s="136"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="133" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="143" t="s">
+      <c r="A26" s="131" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="120"/>
-      <c r="D26" s="121"/>
-      <c r="E26" s="133" t="s">
+      <c r="C26" s="126"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="F26" s="99" t="s">
+      <c r="F26" s="133" t="s">
         <v>31</v>
       </c>
-      <c r="G26" s="101"/>
+      <c r="G26" s="134"/>
       <c r="H26" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I26" s="99" t="s">
+      <c r="I26" s="133" t="s">
         <v>34</v>
       </c>
-      <c r="J26" s="101"/>
+      <c r="J26" s="134"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="134"/>
-      <c r="B27" s="122"/>
-      <c r="C27" s="123"/>
-      <c r="D27" s="124"/>
-      <c r="E27" s="134"/>
-      <c r="F27" s="128" t="s">
+      <c r="A27" s="132"/>
+      <c r="B27" s="128"/>
+      <c r="C27" s="129"/>
+      <c r="D27" s="130"/>
+      <c r="E27" s="132"/>
+      <c r="F27" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="G27" s="130"/>
+      <c r="G27" s="136"/>
       <c r="H27" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="I27" s="128" t="s">
+      <c r="I27" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="J27" s="130"/>
+      <c r="J27" s="136"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="62">
         <v>1</v>
       </c>
-      <c r="B28" s="167" t="str">
+      <c r="B28" s="98" t="str">
         <f>'input data'!B17</f>
         <v>POLISHED GRANITE SLABS</v>
       </c>
-      <c r="C28" s="168"/>
-      <c r="D28" s="169"/>
+      <c r="C28" s="117"/>
+      <c r="D28" s="99"/>
       <c r="E28" s="63">
         <v>68022390</v>
       </c>
-      <c r="F28" s="167">
+      <c r="F28" s="98">
         <f>'input data'!B25</f>
         <v>535.23</v>
       </c>
-      <c r="G28" s="169"/>
+      <c r="G28" s="99"/>
       <c r="H28" s="64">
         <f>'input data'!B26</f>
         <v>6.63</v>
       </c>
-      <c r="I28" s="180">
+      <c r="I28" s="106">
         <f>H28*F28</f>
         <v>3548.5749000000001</v>
       </c>
-      <c r="J28" s="169"/>
+      <c r="J28" s="99"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="27"/>
-      <c r="B29" s="96"/>
-      <c r="C29" s="97"/>
-      <c r="D29" s="98"/>
+      <c r="B29" s="100"/>
+      <c r="C29" s="116"/>
+      <c r="D29" s="101"/>
       <c r="E29" s="25"/>
-      <c r="F29" s="96"/>
-      <c r="G29" s="98"/>
+      <c r="F29" s="100"/>
+      <c r="G29" s="101"/>
       <c r="H29" s="56"/>
-      <c r="I29" s="178"/>
-      <c r="J29" s="179"/>
+      <c r="I29" s="102"/>
+      <c r="J29" s="103"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="27"/>
-      <c r="B30" s="96"/>
-      <c r="C30" s="97"/>
-      <c r="D30" s="98"/>
+      <c r="B30" s="100"/>
+      <c r="C30" s="116"/>
+      <c r="D30" s="101"/>
       <c r="E30" s="25"/>
-      <c r="F30" s="96"/>
-      <c r="G30" s="98"/>
+      <c r="F30" s="100"/>
+      <c r="G30" s="101"/>
       <c r="H30" s="22"/>
       <c r="I30" s="55"/>
       <c r="J30" s="56"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="60"/>
-      <c r="B31" s="131"/>
-      <c r="C31" s="135"/>
-      <c r="D31" s="132"/>
+      <c r="B31" s="104"/>
+      <c r="C31" s="121"/>
+      <c r="D31" s="105"/>
       <c r="E31" s="61"/>
-      <c r="F31" s="131"/>
-      <c r="G31" s="132"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="105"/>
       <c r="H31" s="8"/>
       <c r="I31" s="6"/>
       <c r="J31" s="8"/>
@@ -3303,11 +3309,11 @@
       <c r="J32" s="19"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="96" t="str">
+      <c r="A33" s="100" t="str">
         <f>UPPER('input data'!B23)</f>
         <v>TCKU2284720</v>
       </c>
-      <c r="B33" s="97"/>
+      <c r="B33" s="116"/>
       <c r="C33" s="20">
         <f>'input data'!B24</f>
         <v>190</v>
@@ -3316,7 +3322,7 @@
         <v>49</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>50</v>
+        <v>161</v>
       </c>
       <c r="F33" s="21"/>
       <c r="G33" s="21"/>
@@ -3330,8 +3336,8 @@
       <c r="C34" s="23"/>
       <c r="D34" s="23"/>
       <c r="E34" s="21"/>
-      <c r="F34" s="177"/>
-      <c r="G34" s="177"/>
+      <c r="F34" s="97"/>
+      <c r="G34" s="97"/>
       <c r="H34" s="22"/>
       <c r="I34" s="18"/>
       <c r="J34" s="19"/>
@@ -3350,7 +3356,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
@@ -3359,15 +3365,15 @@
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
       <c r="H36" s="16"/>
-      <c r="I36" s="173">
+      <c r="I36" s="93">
         <f>SUM(I28:J35)</f>
         <v>3548.5749000000001</v>
       </c>
-      <c r="J36" s="174"/>
+      <c r="J36" s="94"/>
     </row>
     <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="87" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B37" s="24"/>
       <c r="C37" s="24"/>
@@ -3376,32 +3382,32 @@
       <c r="F37" s="24"/>
       <c r="G37" s="24"/>
       <c r="H37" s="65"/>
-      <c r="I37" s="175"/>
-      <c r="J37" s="176"/>
+      <c r="I37" s="95"/>
+      <c r="J37" s="96"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="170" t="s">
+      <c r="A38" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="156"/>
-      <c r="C38" s="156"/>
-      <c r="D38" s="157"/>
-      <c r="E38" s="155" t="s">
+      <c r="B38" s="119"/>
+      <c r="C38" s="119"/>
+      <c r="D38" s="120"/>
+      <c r="E38" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="F38" s="171"/>
-      <c r="G38" s="171"/>
-      <c r="H38" s="171"/>
-      <c r="I38" s="171"/>
-      <c r="J38" s="172"/>
+      <c r="F38" s="91"/>
+      <c r="G38" s="91"/>
+      <c r="H38" s="91"/>
+      <c r="I38" s="91"/>
+      <c r="J38" s="92"/>
     </row>
     <row r="39" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="158" t="s">
-        <v>52</v>
-      </c>
-      <c r="B39" s="159"/>
-      <c r="C39" s="159"/>
-      <c r="D39" s="160"/>
+      <c r="A39" s="107" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="108"/>
+      <c r="C39" s="108"/>
+      <c r="D39" s="109"/>
       <c r="E39" s="3" t="s">
         <v>38</v>
       </c>
@@ -3412,10 +3418,10 @@
       <c r="J39" s="5"/>
     </row>
     <row r="40" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="158"/>
-      <c r="B40" s="159"/>
-      <c r="C40" s="159"/>
-      <c r="D40" s="160"/>
+      <c r="A40" s="107"/>
+      <c r="B40" s="108"/>
+      <c r="C40" s="108"/>
+      <c r="D40" s="109"/>
       <c r="E40" s="3"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
@@ -3424,12 +3430,12 @@
       <c r="J40" s="5"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="161" t="s">
-        <v>150</v>
-      </c>
-      <c r="B41" s="162"/>
-      <c r="C41" s="162"/>
-      <c r="D41" s="163"/>
+      <c r="A41" s="110" t="s">
+        <v>148</v>
+      </c>
+      <c r="B41" s="111"/>
+      <c r="C41" s="111"/>
+      <c r="D41" s="112"/>
       <c r="E41" s="3"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
@@ -3438,10 +3444,10 @@
       <c r="J41" s="5"/>
     </row>
     <row r="42" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="164"/>
-      <c r="B42" s="165"/>
-      <c r="C42" s="165"/>
-      <c r="D42" s="166"/>
+      <c r="A42" s="113"/>
+      <c r="B42" s="114"/>
+      <c r="C42" s="114"/>
+      <c r="D42" s="115"/>
       <c r="E42" s="6" t="s">
         <v>39</v>
       </c>
@@ -3453,23 +3459,39 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="I36:J37"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="A39:D40"/>
-    <mergeCell ref="A41:D42"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J13"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G13"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A15:D20"/>
+    <mergeCell ref="E14:J20"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="B26:D27"/>
     <mergeCell ref="E26:E27"/>
@@ -3486,39 +3508,23 @@
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="H10:J10"/>
     <mergeCell ref="C25:D25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A15:D20"/>
-    <mergeCell ref="E14:J20"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J13"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G13"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A39:D40"/>
+    <mergeCell ref="A41:D42"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="I36:J37"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="I28:J28"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -3535,8 +3541,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="M39" sqref="M39"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3546,97 +3552,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="218" t="s">
+      <c r="A1" s="184" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
+      <c r="J1" s="184"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="218"/>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="218"/>
-      <c r="F1" s="218"/>
-      <c r="G1" s="218"/>
-      <c r="H1" s="218"/>
-      <c r="I1" s="218"/>
-      <c r="J1" s="218"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="155" t="s">
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="133" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="134"/>
+      <c r="I2" s="185" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="186"/>
+    </row>
+    <row r="3" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="187" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="99" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="101"/>
-      <c r="I2" s="219" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="220"/>
-    </row>
-    <row r="3" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="221" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="222"/>
-      <c r="C3" s="222"/>
-      <c r="D3" s="222"/>
-      <c r="E3" s="222"/>
-      <c r="F3" s="223"/>
-      <c r="G3" s="131" t="str">
+      <c r="B3" s="188"/>
+      <c r="C3" s="188"/>
+      <c r="D3" s="188"/>
+      <c r="E3" s="188"/>
+      <c r="F3" s="189"/>
+      <c r="G3" s="104" t="str">
         <f>Inovice!E4</f>
         <v>BK016/24-25</v>
       </c>
-      <c r="H3" s="132"/>
-      <c r="I3" s="136">
+      <c r="H3" s="105"/>
+      <c r="I3" s="153">
         <f>Inovice!H4</f>
         <v>45703</v>
       </c>
-      <c r="J3" s="132"/>
+      <c r="J3" s="105"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
       <c r="F4" s="22"/>
-      <c r="G4" s="219" t="s">
+      <c r="G4" s="185" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="224"/>
-      <c r="I4" s="224"/>
-      <c r="J4" s="220"/>
+      <c r="H4" s="190"/>
+      <c r="I4" s="190"/>
+      <c r="J4" s="186"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
       <c r="F5" s="22"/>
-      <c r="G5" s="128" t="s">
+      <c r="G5" s="135" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="129"/>
-      <c r="I5" s="129"/>
-      <c r="J5" s="130"/>
+      <c r="H5" s="155"/>
+      <c r="I5" s="155"/>
+      <c r="J5" s="136"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="225" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="222"/>
-      <c r="C6" s="222"/>
-      <c r="D6" s="222"/>
-      <c r="E6" s="222"/>
+      <c r="A6" s="191" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="188"/>
+      <c r="C6" s="188"/>
+      <c r="D6" s="188"/>
+      <c r="E6" s="188"/>
       <c r="F6" s="22"/>
       <c r="G6" s="38"/>
       <c r="H6" s="41"/>
@@ -3645,7 +3651,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -3653,7 +3659,7 @@
       <c r="E7" s="21"/>
       <c r="F7" s="22"/>
       <c r="G7" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
@@ -3661,7 +3667,7 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -3669,7 +3675,7 @@
       <c r="E8" s="21"/>
       <c r="F8" s="22"/>
       <c r="G8" s="44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H8" s="45"/>
       <c r="I8" s="45"/>
@@ -3685,7 +3691,7 @@
       <c r="E9" s="21"/>
       <c r="F9" s="22"/>
       <c r="G9" s="44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H9" s="45"/>
       <c r="I9" s="45"/>
@@ -3706,29 +3712,29 @@
       <c r="J10" s="8"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="226" t="s">
+      <c r="A11" s="192" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="171"/>
-      <c r="C11" s="171"/>
-      <c r="D11" s="171"/>
-      <c r="E11" s="171"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
       <c r="F11" s="2"/>
       <c r="G11" s="47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="227" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="228"/>
-      <c r="C12" s="228"/>
-      <c r="D12" s="228"/>
-      <c r="E12" s="228"/>
+      <c r="A12" s="193" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="194"/>
+      <c r="C12" s="194"/>
+      <c r="D12" s="194"/>
+      <c r="E12" s="194"/>
       <c r="F12" s="22"/>
       <c r="G12" s="18"/>
       <c r="H12" s="21"/>
@@ -3736,11 +3742,11 @@
       <c r="J12" s="22"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="229"/>
-      <c r="B13" s="230"/>
-      <c r="C13" s="230"/>
-      <c r="D13" s="230"/>
-      <c r="E13" s="230"/>
+      <c r="A13" s="195"/>
+      <c r="B13" s="196"/>
+      <c r="C13" s="196"/>
+      <c r="D13" s="196"/>
+      <c r="E13" s="196"/>
       <c r="F13" s="8"/>
       <c r="G13" s="18"/>
       <c r="H13" s="21"/>
@@ -3748,209 +3754,212 @@
       <c r="J13" s="22"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="215" t="s">
+      <c r="A14" s="181" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="216"/>
-      <c r="C14" s="216"/>
-      <c r="D14" s="216"/>
-      <c r="E14" s="216"/>
-      <c r="F14" s="217"/>
+      <c r="B14" s="182"/>
+      <c r="C14" s="182"/>
+      <c r="D14" s="182"/>
+      <c r="E14" s="182"/>
+      <c r="F14" s="183"/>
       <c r="G14" s="18"/>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
       <c r="J14" s="22"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="112" t="str">
+      <c r="A15" s="160" t="str">
         <f>Inovice!A15</f>
         <v>DONG THANG IMPORT - EXPORT LIMITED
-No 2 Zone - Dong Thang Hamlet - Trieu Son District - Thanh Hoa Province - Vietnam</v>
-      </c>
-      <c r="B15" s="162"/>
-      <c r="C15" s="162"/>
-      <c r="D15" s="162"/>
-      <c r="E15" s="162"/>
-      <c r="F15" s="163"/>
+No 2 Zone - Dong Thang Hamlet - Trieu Son District - Thanh Hoa Province - Vietnam
+Tax: 2802863364
+Contact No: +84976193298, +84978444516
+Email: phamtrang101098@gmail.com</v>
+      </c>
+      <c r="B15" s="111"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="112"/>
       <c r="G15" s="18"/>
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
       <c r="J15" s="22"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="112"/>
-      <c r="B16" s="162"/>
-      <c r="C16" s="162"/>
-      <c r="D16" s="162"/>
-      <c r="E16" s="162"/>
-      <c r="F16" s="163"/>
+      <c r="A16" s="160"/>
+      <c r="B16" s="111"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="112"/>
       <c r="G16" s="18"/>
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
       <c r="J16" s="22"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="112"/>
-      <c r="B17" s="162"/>
-      <c r="C17" s="162"/>
-      <c r="D17" s="162"/>
-      <c r="E17" s="162"/>
-      <c r="F17" s="163"/>
+      <c r="A17" s="160"/>
+      <c r="B17" s="111"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="112"/>
       <c r="G17" s="18"/>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
       <c r="J17" s="22"/>
     </row>
     <row r="18" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="112"/>
-      <c r="B18" s="162"/>
-      <c r="C18" s="162"/>
-      <c r="D18" s="162"/>
-      <c r="E18" s="162"/>
-      <c r="F18" s="163"/>
-      <c r="G18" s="206" t="s">
+      <c r="A18" s="160"/>
+      <c r="B18" s="111"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="203" t="s">
+        <v>65</v>
+      </c>
+      <c r="H18" s="204"/>
+      <c r="I18" s="207" t="s">
         <v>66</v>
       </c>
-      <c r="H18" s="208"/>
-      <c r="I18" s="207" t="s">
-        <v>67</v>
-      </c>
-      <c r="J18" s="208"/>
+      <c r="J18" s="204"/>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="112"/>
-      <c r="B19" s="162"/>
-      <c r="C19" s="162"/>
-      <c r="D19" s="162"/>
-      <c r="E19" s="162"/>
-      <c r="F19" s="163"/>
-      <c r="G19" s="212"/>
-      <c r="H19" s="213"/>
-      <c r="I19" s="214"/>
-      <c r="J19" s="213"/>
+      <c r="A19" s="160"/>
+      <c r="B19" s="111"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="205"/>
+      <c r="H19" s="206"/>
+      <c r="I19" s="208"/>
+      <c r="J19" s="206"/>
     </row>
     <row r="20" spans="1:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="164"/>
-      <c r="B20" s="165"/>
-      <c r="C20" s="165"/>
-      <c r="D20" s="165"/>
-      <c r="E20" s="165"/>
-      <c r="F20" s="166"/>
-      <c r="G20" s="125" t="s">
+      <c r="A20" s="113"/>
+      <c r="B20" s="114"/>
+      <c r="C20" s="114"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="151" t="s">
         <v>23</v>
       </c>
-      <c r="H20" s="127"/>
-      <c r="I20" s="125" t="str">
+      <c r="H20" s="152"/>
+      <c r="I20" s="151" t="str">
         <f>Inovice!H22</f>
         <v>VIETNAM</v>
       </c>
-      <c r="J20" s="127"/>
+      <c r="J20" s="152"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="200" t="s">
+      <c r="A21" s="197" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="198"/>
+      <c r="C21" s="199"/>
+      <c r="D21" s="197" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="201"/>
-      <c r="C21" s="202"/>
-      <c r="D21" s="200" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="201"/>
-      <c r="F21" s="202"/>
-      <c r="G21" s="209" t="s">
-        <v>119</v>
-      </c>
-      <c r="H21" s="210"/>
-      <c r="I21" s="210"/>
-      <c r="J21" s="211"/>
+      <c r="E21" s="198"/>
+      <c r="F21" s="199"/>
+      <c r="G21" s="200" t="s">
+        <v>117</v>
+      </c>
+      <c r="H21" s="201"/>
+      <c r="I21" s="201"/>
+      <c r="J21" s="202"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="131"/>
-      <c r="B22" s="135"/>
-      <c r="C22" s="132"/>
-      <c r="D22" s="128" t="str">
+      <c r="A22" s="104"/>
+      <c r="B22" s="121"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="135" t="str">
         <f>Inovice!C22</f>
         <v>MUNDRA</v>
       </c>
-      <c r="E22" s="129"/>
-      <c r="F22" s="130"/>
-      <c r="G22" s="106" t="str">
+      <c r="E22" s="155"/>
+      <c r="F22" s="136"/>
+      <c r="G22" s="177" t="str">
         <f>'input data'!B15</f>
         <v>CNF</v>
       </c>
-      <c r="H22" s="94"/>
-      <c r="I22" s="94"/>
-      <c r="J22" s="95"/>
+      <c r="H22" s="173"/>
+      <c r="I22" s="173"/>
+      <c r="J22" s="174"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="200" t="s">
+      <c r="A23" s="197" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="198"/>
+      <c r="C23" s="199"/>
+      <c r="D23" s="197" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="201"/>
-      <c r="C23" s="202"/>
-      <c r="D23" s="200" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" s="201"/>
-      <c r="F23" s="202"/>
+      <c r="E23" s="198"/>
+      <c r="F23" s="199"/>
       <c r="G23" s="57"/>
       <c r="H23" s="58"/>
       <c r="I23" s="58"/>
       <c r="J23" s="59"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="131"/>
-      <c r="B24" s="135"/>
-      <c r="C24" s="132"/>
-      <c r="D24" s="128" t="str">
+      <c r="A24" s="104"/>
+      <c r="B24" s="121"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="135" t="str">
         <f>Inovice!C25</f>
         <v>MUNDRA</v>
       </c>
-      <c r="E24" s="129"/>
-      <c r="F24" s="130"/>
+      <c r="E24" s="155"/>
+      <c r="F24" s="136"/>
       <c r="G24" s="6"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="8"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="200" t="s">
+      <c r="A25" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="201"/>
-      <c r="C25" s="202"/>
-      <c r="D25" s="200" t="s">
+      <c r="B25" s="198"/>
+      <c r="C25" s="199"/>
+      <c r="D25" s="197" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="201"/>
-      <c r="F25" s="202"/>
-      <c r="G25" s="203" t="s">
-        <v>120</v>
-      </c>
-      <c r="H25" s="204"/>
-      <c r="I25" s="204"/>
-      <c r="J25" s="205"/>
+      <c r="E25" s="198"/>
+      <c r="F25" s="199"/>
+      <c r="G25" s="209" t="s">
+        <v>118</v>
+      </c>
+      <c r="H25" s="210"/>
+      <c r="I25" s="210"/>
+      <c r="J25" s="211"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="138" t="str">
+      <c r="A26" s="156" t="str">
         <f>Inovice!E25</f>
         <v>HAI PHONG</v>
       </c>
-      <c r="B26" s="177"/>
-      <c r="C26" s="139"/>
-      <c r="D26" s="138" t="str">
+      <c r="B26" s="97"/>
+      <c r="C26" s="157"/>
+      <c r="D26" s="156" t="str">
         <f>Inovice!H25</f>
         <v>HAI PHONG</v>
       </c>
-      <c r="E26" s="177"/>
-      <c r="F26" s="139"/>
-      <c r="G26" s="206" t="str">
+      <c r="E26" s="97"/>
+      <c r="F26" s="157"/>
+      <c r="G26" s="203" t="str">
         <f>'input data'!B16</f>
         <v>100% Against Documents</v>
       </c>
       <c r="H26" s="207"/>
       <c r="I26" s="207"/>
-      <c r="J26" s="208"/>
+      <c r="J26" s="204"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="81"/>
@@ -3966,63 +3975,63 @@
     </row>
     <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" s="128" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="130"/>
-      <c r="D28" s="128" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="135" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="136"/>
+      <c r="D28" s="135" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="129"/>
-      <c r="F28" s="129"/>
+      <c r="E28" s="155"/>
+      <c r="F28" s="155"/>
       <c r="G28" s="79"/>
       <c r="H28" s="80"/>
-      <c r="I28" s="128" t="s">
+      <c r="I28" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="J28" s="130"/>
+      <c r="J28" s="136"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="62">
         <v>1</v>
       </c>
-      <c r="B29" s="167">
+      <c r="B29" s="98">
         <f>Inovice!E28</f>
         <v>68022390</v>
       </c>
-      <c r="C29" s="169"/>
-      <c r="D29" s="195" t="str">
+      <c r="C29" s="99"/>
+      <c r="D29" s="212" t="str">
         <f>Inovice!B28</f>
         <v>POLISHED GRANITE SLABS</v>
       </c>
-      <c r="E29" s="196"/>
-      <c r="F29" s="196"/>
-      <c r="G29" s="196"/>
-      <c r="H29" s="197"/>
-      <c r="I29" s="198">
+      <c r="E29" s="213"/>
+      <c r="F29" s="213"/>
+      <c r="G29" s="213"/>
+      <c r="H29" s="214"/>
+      <c r="I29" s="215">
         <f>Inovice!F28</f>
         <v>535.23</v>
       </c>
-      <c r="J29" s="199"/>
+      <c r="J29" s="216"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="28"/>
-      <c r="B30" s="96"/>
-      <c r="C30" s="98"/>
+      <c r="B30" s="100"/>
+      <c r="C30" s="101"/>
       <c r="D30" s="31"/>
       <c r="E30" s="31"/>
       <c r="F30" s="31"/>
       <c r="G30" s="31"/>
       <c r="H30" s="32"/>
-      <c r="I30" s="96"/>
-      <c r="J30" s="98"/>
+      <c r="I30" s="100"/>
+      <c r="J30" s="101"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="48"/>
-      <c r="B31" s="131"/>
-      <c r="C31" s="132"/>
+      <c r="B31" s="104"/>
+      <c r="C31" s="105"/>
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
       <c r="F31" s="33"/>
@@ -4033,7 +4042,7 @@
     </row>
     <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B32" s="50"/>
       <c r="C32" s="50"/>
@@ -4042,11 +4051,11 @@
       <c r="F32" s="50"/>
       <c r="G32" s="50"/>
       <c r="H32" s="50"/>
-      <c r="I32" s="193">
+      <c r="I32" s="217">
         <f>SUM(I29:J29)</f>
         <v>535.23</v>
       </c>
-      <c r="J32" s="91"/>
+      <c r="J32" s="170"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="43"/>
@@ -4061,17 +4070,17 @@
       <c r="J33" s="39"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="138" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34" s="177"/>
+      <c r="A34" s="156" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="97"/>
       <c r="C34" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="177" t="s">
+      <c r="D34" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="E34" s="177"/>
+      <c r="E34" s="97"/>
       <c r="F34" s="41" t="s">
         <v>48</v>
       </c>
@@ -4081,21 +4090,21 @@
       <c r="J34" s="39"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="96" t="str">
+      <c r="A35" s="100" t="str">
         <f>Inovice!A33</f>
         <v>TCKU2284720</v>
       </c>
-      <c r="B35" s="97"/>
+      <c r="B35" s="116"/>
       <c r="C35" s="31">
         <f>Inovice!C33</f>
         <v>190</v>
       </c>
-      <c r="D35" s="194" t="s">
-        <v>75</v>
-      </c>
-      <c r="E35" s="194"/>
+      <c r="D35" s="218" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35" s="218"/>
       <c r="F35" s="31" t="s">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="G35" s="31"/>
       <c r="H35" s="23"/>
@@ -4116,7 +4125,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="35" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B37" s="36"/>
       <c r="C37" s="36" t="str">
@@ -4133,7 +4142,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="35" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B38" s="36"/>
       <c r="C38" s="36"/>
@@ -4158,67 +4167,108 @@
       <c r="J39" s="53"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="155" t="s">
-        <v>78</v>
-      </c>
-      <c r="B40" s="156"/>
-      <c r="C40" s="156"/>
-      <c r="D40" s="156"/>
-      <c r="E40" s="156"/>
-      <c r="F40" s="157"/>
-      <c r="G40" s="155" t="s">
+      <c r="A40" s="90" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="119"/>
+      <c r="C40" s="119"/>
+      <c r="D40" s="119"/>
+      <c r="E40" s="119"/>
+      <c r="F40" s="120"/>
+      <c r="G40" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="H40" s="156"/>
-      <c r="I40" s="156"/>
-      <c r="J40" s="157"/>
+      <c r="H40" s="119"/>
+      <c r="I40" s="119"/>
+      <c r="J40" s="120"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="181" t="s">
-        <v>79</v>
-      </c>
-      <c r="B41" s="182"/>
-      <c r="C41" s="182"/>
-      <c r="D41" s="182"/>
-      <c r="E41" s="182"/>
-      <c r="F41" s="183"/>
+      <c r="A41" s="219" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" s="220"/>
+      <c r="C41" s="220"/>
+      <c r="D41" s="220"/>
+      <c r="E41" s="220"/>
+      <c r="F41" s="221"/>
       <c r="G41" s="18"/>
       <c r="H41" s="21"/>
       <c r="I41" s="21"/>
       <c r="J41" s="22"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="184" t="s">
-        <v>80</v>
-      </c>
-      <c r="B42" s="185"/>
-      <c r="C42" s="185"/>
-      <c r="D42" s="185"/>
-      <c r="E42" s="185"/>
-      <c r="F42" s="186"/>
+      <c r="A42" s="222" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="223"/>
+      <c r="C42" s="223"/>
+      <c r="D42" s="223"/>
+      <c r="E42" s="223"/>
+      <c r="F42" s="224"/>
       <c r="G42" s="18"/>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
       <c r="J42" s="22"/>
     </row>
     <row r="43" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="187" t="s">
-        <v>81</v>
-      </c>
-      <c r="B43" s="188"/>
-      <c r="C43" s="188"/>
-      <c r="D43" s="188"/>
-      <c r="E43" s="188"/>
-      <c r="F43" s="189"/>
-      <c r="G43" s="190" t="s">
-        <v>82</v>
-      </c>
-      <c r="H43" s="191"/>
-      <c r="I43" s="191"/>
-      <c r="J43" s="192"/>
+      <c r="A43" s="225" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" s="226"/>
+      <c r="C43" s="226"/>
+      <c r="D43" s="226"/>
+      <c r="E43" s="226"/>
+      <c r="F43" s="227"/>
+      <c r="G43" s="228" t="s">
+        <v>80</v>
+      </c>
+      <c r="H43" s="229"/>
+      <c r="I43" s="229"/>
+      <c r="J43" s="230"/>
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="A15:F20"/>
+    <mergeCell ref="G18:H19"/>
+    <mergeCell ref="I18:J19"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:F2"/>
@@ -4232,47 +4282,6 @@
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="A12:E13"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="A15:F20"/>
-    <mergeCell ref="G18:H19"/>
-    <mergeCell ref="I18:J19"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="G43:J43"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A9" r:id="rId1" xr:uid="{9977EBA1-A2DF-4F3F-82BC-07854643DADB}"/>
@@ -4300,92 +4309,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="246" t="s">
+      <c r="A1" s="259" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="247"/>
-      <c r="C1" s="247"/>
-      <c r="D1" s="247"/>
-      <c r="E1" s="247"/>
-      <c r="F1" s="247"/>
-      <c r="G1" s="247"/>
-      <c r="H1" s="247"/>
-      <c r="I1" s="247"/>
-      <c r="J1" s="248"/>
-      <c r="Q1" s="244"/>
-      <c r="R1" s="245"/>
-      <c r="S1" s="245"/>
-      <c r="T1" s="245"/>
-      <c r="U1" s="245"/>
-      <c r="V1" s="231"/>
-      <c r="W1" s="231"/>
-      <c r="X1" s="231"/>
+      <c r="B1" s="260"/>
+      <c r="C1" s="260"/>
+      <c r="D1" s="260"/>
+      <c r="E1" s="260"/>
+      <c r="F1" s="260"/>
+      <c r="G1" s="260"/>
+      <c r="H1" s="260"/>
+      <c r="I1" s="260"/>
+      <c r="J1" s="261"/>
+      <c r="Q1" s="257"/>
+      <c r="R1" s="258"/>
+      <c r="S1" s="258"/>
+      <c r="T1" s="258"/>
+      <c r="U1" s="258"/>
+      <c r="V1" s="244"/>
+      <c r="W1" s="244"/>
+      <c r="X1" s="244"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="249"/>
-      <c r="B2" s="250"/>
-      <c r="C2" s="250"/>
-      <c r="D2" s="250"/>
-      <c r="E2" s="250"/>
-      <c r="F2" s="250"/>
-      <c r="G2" s="250"/>
-      <c r="H2" s="250"/>
-      <c r="I2" s="250"/>
-      <c r="J2" s="251"/>
+      <c r="A2" s="262"/>
+      <c r="B2" s="263"/>
+      <c r="C2" s="263"/>
+      <c r="D2" s="263"/>
+      <c r="E2" s="263"/>
+      <c r="F2" s="263"/>
+      <c r="G2" s="263"/>
+      <c r="H2" s="263"/>
+      <c r="I2" s="263"/>
+      <c r="J2" s="264"/>
     </row>
     <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="252"/>
-      <c r="B3" s="253"/>
-      <c r="C3" s="253"/>
-      <c r="D3" s="253"/>
-      <c r="E3" s="253"/>
-      <c r="F3" s="253"/>
-      <c r="G3" s="253"/>
-      <c r="H3" s="253"/>
-      <c r="I3" s="253"/>
-      <c r="J3" s="254"/>
+      <c r="A3" s="265"/>
+      <c r="B3" s="266"/>
+      <c r="C3" s="266"/>
+      <c r="D3" s="266"/>
+      <c r="E3" s="266"/>
+      <c r="F3" s="266"/>
+      <c r="G3" s="266"/>
+      <c r="H3" s="266"/>
+      <c r="I3" s="266"/>
+      <c r="J3" s="267"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="255" t="s">
+      <c r="A4" s="268" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="269"/>
+      <c r="C4" s="269"/>
+      <c r="D4" s="269"/>
+      <c r="E4" s="269"/>
+      <c r="F4" s="269"/>
+      <c r="G4" s="269"/>
+      <c r="H4" s="269"/>
+      <c r="I4" s="269"/>
+      <c r="J4" s="270"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="234" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="235"/>
+      <c r="C5" s="235"/>
+      <c r="D5" s="235"/>
+      <c r="E5" s="235"/>
+      <c r="F5" s="235"/>
+      <c r="G5" s="235"/>
+      <c r="H5" s="235"/>
+      <c r="I5" s="235"/>
+      <c r="J5" s="236"/>
+    </row>
+    <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="104" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="256"/>
-      <c r="C4" s="256"/>
-      <c r="D4" s="256"/>
-      <c r="E4" s="256"/>
-      <c r="F4" s="256"/>
-      <c r="G4" s="256"/>
-      <c r="H4" s="256"/>
-      <c r="I4" s="256"/>
-      <c r="J4" s="257"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="258" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" s="259"/>
-      <c r="C5" s="259"/>
-      <c r="D5" s="259"/>
-      <c r="E5" s="259"/>
-      <c r="F5" s="259"/>
-      <c r="G5" s="259"/>
-      <c r="H5" s="259"/>
-      <c r="I5" s="259"/>
-      <c r="J5" s="260"/>
-    </row>
-    <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="131" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" s="135"/>
-      <c r="C6" s="135"/>
-      <c r="D6" s="135"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135"/>
-      <c r="G6" s="135"/>
-      <c r="H6" s="135"/>
-      <c r="I6" s="135"/>
-      <c r="J6" s="132"/>
+      <c r="B6" s="121"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="121"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="105"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="47"/>
@@ -4400,18 +4409,18 @@
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="261" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" s="97"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="98"/>
+      <c r="A8" s="237" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="101"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
@@ -4427,7 +4436,7 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B10" s="83">
         <v>45703</v>
@@ -4443,10 +4452,10 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
@@ -4471,7 +4480,7 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
@@ -4484,50 +4493,50 @@
       <c r="J13" s="22"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="225" t="s">
-        <v>154</v>
-      </c>
-      <c r="B14" s="222"/>
-      <c r="C14" s="222"/>
-      <c r="D14" s="222"/>
-      <c r="E14" s="222"/>
-      <c r="F14" s="222"/>
+      <c r="A14" s="191" t="s">
+        <v>152</v>
+      </c>
+      <c r="B14" s="188"/>
+      <c r="C14" s="188"/>
+      <c r="D14" s="188"/>
+      <c r="E14" s="188"/>
+      <c r="F14" s="188"/>
       <c r="G14" s="21"/>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
       <c r="J14" s="22"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="112" t="s">
-        <v>157</v>
-      </c>
-      <c r="B15" s="113"/>
-      <c r="C15" s="113"/>
-      <c r="D15" s="113"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="113"/>
+      <c r="A15" s="160" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" s="161"/>
+      <c r="C15" s="161"/>
+      <c r="D15" s="161"/>
+      <c r="E15" s="161"/>
+      <c r="F15" s="161"/>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
       <c r="J15" s="22"/>
     </row>
     <row r="16" spans="1:24" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="115"/>
-      <c r="B16" s="113"/>
-      <c r="C16" s="113"/>
-      <c r="D16" s="113"/>
-      <c r="E16" s="113"/>
-      <c r="F16" s="113"/>
+      <c r="A16" s="163"/>
+      <c r="B16" s="161"/>
+      <c r="C16" s="161"/>
+      <c r="D16" s="161"/>
+      <c r="E16" s="161"/>
+      <c r="F16" s="161"/>
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
       <c r="J16" s="22"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="221"/>
-      <c r="B17" s="267"/>
-      <c r="C17" s="267"/>
-      <c r="D17" s="267"/>
+      <c r="A17" s="187"/>
+      <c r="B17" s="231"/>
+      <c r="C17" s="231"/>
+      <c r="D17" s="231"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
@@ -4537,7 +4546,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
@@ -4562,120 +4571,120 @@
       <c r="J19" s="8"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="264" t="s">
-        <v>147</v>
-      </c>
-      <c r="B20" s="265"/>
-      <c r="C20" s="265"/>
-      <c r="D20" s="268"/>
-      <c r="E20" s="104" t="s">
+      <c r="A20" s="240" t="s">
+        <v>145</v>
+      </c>
+      <c r="B20" s="241"/>
+      <c r="C20" s="241"/>
+      <c r="D20" s="243"/>
+      <c r="E20" s="175" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="170"/>
+      <c r="G20" s="175" t="s">
+        <v>93</v>
+      </c>
+      <c r="H20" s="170"/>
+      <c r="I20" s="175" t="s">
         <v>94</v>
       </c>
-      <c r="F20" s="91"/>
-      <c r="G20" s="104" t="s">
-        <v>95</v>
-      </c>
-      <c r="H20" s="91"/>
-      <c r="I20" s="104" t="s">
-        <v>96</v>
-      </c>
-      <c r="J20" s="91"/>
+      <c r="J20" s="170"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="241" t="s">
-        <v>146</v>
-      </c>
-      <c r="B21" s="242"/>
-      <c r="C21" s="242"/>
-      <c r="D21" s="242"/>
-      <c r="E21" s="243">
+      <c r="A21" s="254" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" s="255"/>
+      <c r="C21" s="255"/>
+      <c r="D21" s="255"/>
+      <c r="E21" s="256">
         <v>43.37</v>
       </c>
-      <c r="F21" s="243"/>
-      <c r="G21" s="243">
+      <c r="F21" s="256"/>
+      <c r="G21" s="256">
         <v>5759</v>
       </c>
-      <c r="H21" s="243"/>
-      <c r="I21" s="235">
+      <c r="H21" s="256"/>
+      <c r="I21" s="248">
         <f>E21*G21</f>
         <v>249767.83</v>
       </c>
-      <c r="J21" s="236"/>
+      <c r="J21" s="249"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="96"/>
-      <c r="B22" s="97"/>
-      <c r="C22" s="97"/>
-      <c r="D22" s="97"/>
-      <c r="E22" s="269"/>
-      <c r="F22" s="270"/>
-      <c r="G22" s="233" t="s">
-        <v>97</v>
-      </c>
-      <c r="H22" s="234"/>
-      <c r="I22" s="235">
+      <c r="A22" s="100"/>
+      <c r="B22" s="116"/>
+      <c r="C22" s="116"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="232"/>
+      <c r="F22" s="233"/>
+      <c r="G22" s="246" t="s">
+        <v>95</v>
+      </c>
+      <c r="H22" s="247"/>
+      <c r="I22" s="248">
         <f>I21*0.001</f>
         <v>249.76783</v>
       </c>
-      <c r="J22" s="236"/>
+      <c r="J22" s="249"/>
     </row>
     <row r="23" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="190"/>
-      <c r="B23" s="191"/>
-      <c r="C23" s="191"/>
-      <c r="D23" s="191"/>
+      <c r="A23" s="228"/>
+      <c r="B23" s="229"/>
+      <c r="C23" s="229"/>
+      <c r="D23" s="229"/>
       <c r="E23" s="7"/>
       <c r="F23" s="86"/>
-      <c r="G23" s="237" t="s">
-        <v>73</v>
-      </c>
-      <c r="H23" s="238"/>
-      <c r="I23" s="239">
+      <c r="G23" s="250" t="s">
+        <v>72</v>
+      </c>
+      <c r="H23" s="251"/>
+      <c r="I23" s="252">
         <f>SUM(I21:J22)</f>
         <v>250017.59782999998</v>
       </c>
-      <c r="J23" s="240"/>
+      <c r="J23" s="253"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="96"/>
-      <c r="B24" s="97"/>
-      <c r="C24" s="97"/>
-      <c r="D24" s="97"/>
+      <c r="A24" s="100"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="116"/>
+      <c r="D24" s="116"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
-      <c r="G24" s="232"/>
-      <c r="H24" s="232"/>
-      <c r="I24" s="97"/>
-      <c r="J24" s="98"/>
+      <c r="G24" s="245"/>
+      <c r="H24" s="245"/>
+      <c r="I24" s="116"/>
+      <c r="J24" s="101"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="131"/>
-      <c r="B25" s="135"/>
-      <c r="C25" s="135"/>
-      <c r="D25" s="135"/>
+      <c r="A25" s="104"/>
+      <c r="B25" s="121"/>
+      <c r="C25" s="121"/>
+      <c r="D25" s="121"/>
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
-      <c r="G25" s="97"/>
-      <c r="H25" s="97"/>
-      <c r="I25" s="97"/>
-      <c r="J25" s="98"/>
+      <c r="G25" s="116"/>
+      <c r="H25" s="116"/>
+      <c r="I25" s="116"/>
+      <c r="J25" s="101"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="264" t="s">
-        <v>98</v>
-      </c>
-      <c r="B26" s="265"/>
+      <c r="A26" s="240" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="241"/>
       <c r="C26" s="50"/>
       <c r="D26" s="50"/>
       <c r="E26" s="50"/>
       <c r="F26" s="50"/>
       <c r="G26" s="50"/>
       <c r="H26" s="50"/>
-      <c r="I26" s="266">
+      <c r="I26" s="242">
         <f>I23</f>
         <v>250017.59782999998</v>
       </c>
-      <c r="J26" s="91"/>
+      <c r="J26" s="170"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
@@ -4690,10 +4699,10 @@
       <c r="J27" s="22"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="262" t="s">
-        <v>99</v>
-      </c>
-      <c r="B28" s="263"/>
+      <c r="A28" s="238" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" s="239"/>
       <c r="C28" s="21"/>
       <c r="D28" s="21"/>
       <c r="E28" s="21"/>
@@ -4705,11 +4714,11 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B29" s="21"/>
       <c r="C29" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
@@ -4721,7 +4730,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
@@ -4735,7 +4744,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
@@ -4749,11 +4758,11 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B32" s="21"/>
       <c r="C32" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D32" s="21"/>
       <c r="E32" s="21"/>
@@ -4765,7 +4774,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -4779,7 +4788,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
@@ -4793,11 +4802,11 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B35" s="21"/>
       <c r="C35" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D35" s="21"/>
       <c r="E35" s="21"/>
@@ -4811,7 +4820,7 @@
       <c r="A36" s="18"/>
       <c r="B36" s="21"/>
       <c r="C36" s="84" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D36" s="21"/>
       <c r="E36" s="21"/>
@@ -4825,7 +4834,7 @@
       <c r="A37" s="18"/>
       <c r="B37" s="21"/>
       <c r="C37" s="21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D37" s="21"/>
       <c r="E37" s="21"/>
@@ -4836,28 +4845,28 @@
       <c r="J37" s="22"/>
     </row>
     <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="221" t="s">
-        <v>111</v>
-      </c>
-      <c r="B38" s="267"/>
-      <c r="C38" s="267"/>
-      <c r="D38" s="267"/>
-      <c r="E38" s="267"/>
-      <c r="F38" s="267"/>
+      <c r="A38" s="187" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" s="231"/>
+      <c r="C38" s="231"/>
+      <c r="D38" s="231"/>
+      <c r="E38" s="231"/>
+      <c r="F38" s="231"/>
       <c r="G38" s="21"/>
       <c r="H38" s="21"/>
       <c r="I38" s="21"/>
       <c r="J38" s="22"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="221" t="s">
-        <v>112</v>
-      </c>
-      <c r="B39" s="267"/>
-      <c r="C39" s="267"/>
-      <c r="D39" s="267"/>
-      <c r="E39" s="267"/>
-      <c r="F39" s="267"/>
+      <c r="A39" s="187" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" s="231"/>
+      <c r="C39" s="231"/>
+      <c r="D39" s="231"/>
+      <c r="E39" s="231"/>
+      <c r="F39" s="231"/>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
       <c r="I39" s="21"/>
@@ -4865,7 +4874,7 @@
     </row>
     <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="44" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B40" s="85" t="str">
         <f>'input data'!B5</f>
@@ -4882,7 +4891,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
@@ -4932,26 +4941,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="A15:F16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
     <mergeCell ref="V1:X1"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="G24:H24"/>
@@ -4968,6 +4957,26 @@
     <mergeCell ref="Q1:U1"/>
     <mergeCell ref="A1:J3"/>
     <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="A15:F16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A25:D25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="97" orientation="portrait" r:id="rId1"/>
